--- a/软件开发/00_设计方案/01_数据库设计/ITDOC-PJ201904005-30_データベース設計20190820_三菱.xlsx
+++ b/软件开发/00_设计方案/01_数据库设计/ITDOC-PJ201904005-30_データベース設計20190820_三菱.xlsx
@@ -2107,10 +2107,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -2178,9 +2178,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2191,56 +2191,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2257,11 +2219,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2273,46 +2249,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2325,9 +2287,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2431,7 +2431,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2443,37 +2563,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2485,103 +2581,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2890,11 +2890,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2910,6 +2940,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2931,15 +2979,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2948,67 +2987,28 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="311">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3017,25 +3017,25 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3047,170 +3047,212 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3427,50 +3469,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3486,224 +3489,218 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3798,152 +3795,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3957,40 +3957,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="159" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="160" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="159" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="160" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="159" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="160" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="159" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="160" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="159" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="160" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="159" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="160" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="159" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="160" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="159" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="160" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="159" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="160" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="159" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="160" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="159" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="160" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="159" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="160" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3999,116 +3999,116 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="159" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="160" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="159" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="160" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="159" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="160" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="159" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="160" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="159" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="160" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="159" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="160" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="159" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="160" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="159" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="160" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="159" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="160" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="159" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="160" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="159" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="160" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="159" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="160" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="159" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="160" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="159" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="160" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="159" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="160" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="159" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="160" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="159" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="160" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="159" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="160" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="159" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="160" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="159" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="160" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="159" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="160" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="159" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="160" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="159" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="160" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="159" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="160" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="159" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="160" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="159" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="160" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="159" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="160" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="159" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="160" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="159" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="160" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="159" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="160" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="159" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="160" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="159" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="160" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="159" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="160" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="159" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="160" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="159" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="160" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="163" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="162" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="161" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4117,104 +4117,104 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="161" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="163" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="162" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="171" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="173" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="171" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="173" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="171" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="173" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="171" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="173" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="171" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="173" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="171" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="173" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="171" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="173" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="171" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="173" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="171" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="173" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="171" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="173" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="171" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="173" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="171" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="173" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="171" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="173" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="171" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="173" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="171" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="173" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="171" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="173" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="171" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="173" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="171" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="173" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="171" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="173" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="171" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="173" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="171" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="173" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="171" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="173" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="171" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="173" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="171" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="173" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="171" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="173" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="171" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="173" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="171" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="173" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="171" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="173" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="171" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="173" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="268" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="267" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="268" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="15" borderId="0" xfId="268" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="267" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="15" borderId="0" xfId="267" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="15" borderId="0" xfId="268" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="15" borderId="0" xfId="267" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="310" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4259,7 +4259,7 @@
     <xf numFmtId="49" fontId="3" fillId="15" borderId="13" xfId="310" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="268" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="267" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="15" borderId="10" xfId="310" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4287,50 +4287,50 @@
     <xf numFmtId="49" fontId="3" fillId="15" borderId="19" xfId="310" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="168" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="170" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="168" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="170" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="16" xfId="168" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="16" xfId="170" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="168" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="170" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="168" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="170" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="168" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="170" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="168" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="170" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="168" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="22" xfId="168" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="170" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="22" xfId="170" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="23" xfId="168" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="23" xfId="170" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="309" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="168" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="170" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="18" xfId="168" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="18" xfId="170" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="24" xfId="168" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="24" xfId="170" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="24" xfId="168" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="24" xfId="170" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="25" xfId="168" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="25" xfId="170" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4383,8 +4383,8 @@
     <cellStyle name="链接单元格" xfId="45" builtinId="24"/>
     <cellStyle name="汇总" xfId="46" builtinId="25"/>
     <cellStyle name="好" xfId="47" builtinId="26"/>
-    <cellStyle name="常规 11 18" xfId="48"/>
-    <cellStyle name="常规 11 23" xfId="49"/>
+    <cellStyle name="常规 11 23" xfId="48"/>
+    <cellStyle name="常规 11 18" xfId="49"/>
     <cellStyle name="适中" xfId="50" builtinId="28"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="51" builtinId="46"/>
     <cellStyle name="强调文字颜色 1" xfId="52" builtinId="29"/>
@@ -4400,67 +4400,67 @@
     <cellStyle name="强调文字颜色 5" xfId="62" builtinId="45"/>
     <cellStyle name="常规 11 11" xfId="63"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="64" builtinId="47"/>
-    <cellStyle name="常规 4 15" xfId="65"/>
-    <cellStyle name="常规 4 20" xfId="66"/>
+    <cellStyle name="常规 4 20" xfId="65"/>
+    <cellStyle name="常规 4 15" xfId="66"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="67" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="68" builtinId="49"/>
     <cellStyle name="常规 11 12" xfId="69"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="70" builtinId="51"/>
-    <cellStyle name="常规 4 16" xfId="71"/>
-    <cellStyle name="常规 4 21" xfId="72"/>
+    <cellStyle name="常规 4 21" xfId="71"/>
+    <cellStyle name="常规 4 16" xfId="72"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="73" builtinId="52"/>
     <cellStyle name="常规 10" xfId="74"/>
     <cellStyle name="常规 11 13" xfId="75"/>
     <cellStyle name="常规 11" xfId="76"/>
-    <cellStyle name="常规 11 20" xfId="77"/>
-    <cellStyle name="常规 11 15" xfId="78"/>
-    <cellStyle name="常规 11 2" xfId="79"/>
+    <cellStyle name="常规 11 15" xfId="77"/>
+    <cellStyle name="常规 11 20" xfId="78"/>
+    <cellStyle name="常规 13 31" xfId="79"/>
     <cellStyle name="常规 13 26" xfId="80"/>
-    <cellStyle name="常规 13 31" xfId="81"/>
-    <cellStyle name="常规 11 21" xfId="82"/>
-    <cellStyle name="常规 11 16" xfId="83"/>
-    <cellStyle name="常规 11 22" xfId="84"/>
-    <cellStyle name="常规 11 17" xfId="85"/>
-    <cellStyle name="常规 11 19" xfId="86"/>
-    <cellStyle name="常规 11 24" xfId="87"/>
-    <cellStyle name="常规 11 25" xfId="88"/>
-    <cellStyle name="常规 11 30" xfId="89"/>
-    <cellStyle name="常规 11 26" xfId="90"/>
-    <cellStyle name="常规 11 31" xfId="91"/>
-    <cellStyle name="常规 11 27" xfId="92"/>
-    <cellStyle name="常规 11 32" xfId="93"/>
-    <cellStyle name="常规 11 28" xfId="94"/>
-    <cellStyle name="常规 11 33" xfId="95"/>
-    <cellStyle name="常规 11 29" xfId="96"/>
-    <cellStyle name="常规 11 34" xfId="97"/>
-    <cellStyle name="常规 11 3" xfId="98"/>
+    <cellStyle name="常规 11 2" xfId="81"/>
+    <cellStyle name="常规 11 16" xfId="82"/>
+    <cellStyle name="常规 11 21" xfId="83"/>
+    <cellStyle name="常规 11 17" xfId="84"/>
+    <cellStyle name="常规 11 22" xfId="85"/>
+    <cellStyle name="常规 11 24" xfId="86"/>
+    <cellStyle name="常规 11 19" xfId="87"/>
+    <cellStyle name="常规 11 30" xfId="88"/>
+    <cellStyle name="常规 11 25" xfId="89"/>
+    <cellStyle name="常规 11 31" xfId="90"/>
+    <cellStyle name="常规 11 26" xfId="91"/>
+    <cellStyle name="常规 11 32" xfId="92"/>
+    <cellStyle name="常规 11 27" xfId="93"/>
+    <cellStyle name="常规 11 33" xfId="94"/>
+    <cellStyle name="常规 11 28" xfId="95"/>
+    <cellStyle name="常规 11 34" xfId="96"/>
+    <cellStyle name="常规 11 29" xfId="97"/>
+    <cellStyle name="常规 13 32" xfId="98"/>
     <cellStyle name="常规 13 27" xfId="99"/>
-    <cellStyle name="常规 13 32" xfId="100"/>
-    <cellStyle name="常规 11 35" xfId="101"/>
-    <cellStyle name="常规 11 40" xfId="102"/>
-    <cellStyle name="常规 11 36" xfId="103"/>
-    <cellStyle name="常规 11 41" xfId="104"/>
-    <cellStyle name="常规 11 38" xfId="105"/>
-    <cellStyle name="常规 11 43" xfId="106"/>
+    <cellStyle name="常规 11 3" xfId="100"/>
+    <cellStyle name="常规 11 40" xfId="101"/>
+    <cellStyle name="常规 11 35" xfId="102"/>
+    <cellStyle name="常规 11 41" xfId="103"/>
+    <cellStyle name="常规 11 36" xfId="104"/>
+    <cellStyle name="常规 11 43" xfId="105"/>
+    <cellStyle name="常规 11 38" xfId="106"/>
     <cellStyle name="常规 11 39" xfId="107"/>
-    <cellStyle name="常规 11 4" xfId="108"/>
+    <cellStyle name="常规 13 33" xfId="108"/>
     <cellStyle name="常规 13 28" xfId="109"/>
-    <cellStyle name="常规 13 33" xfId="110"/>
-    <cellStyle name="常规 11 5" xfId="111"/>
+    <cellStyle name="常规 11 4" xfId="110"/>
+    <cellStyle name="常规 13 34" xfId="111"/>
     <cellStyle name="常规 13 29" xfId="112"/>
-    <cellStyle name="常规 13 34" xfId="113"/>
-    <cellStyle name="常规 11 6" xfId="114"/>
+    <cellStyle name="常规 11 5" xfId="113"/>
+    <cellStyle name="常规 13 40" xfId="114"/>
     <cellStyle name="常规 13 35" xfId="115"/>
-    <cellStyle name="常规 13 40" xfId="116"/>
-    <cellStyle name="常规 11 7" xfId="117"/>
+    <cellStyle name="常规 11 6" xfId="116"/>
+    <cellStyle name="常规 13 41" xfId="117"/>
     <cellStyle name="常规 13 36" xfId="118"/>
-    <cellStyle name="常规 13 41" xfId="119"/>
-    <cellStyle name="常规 11 8" xfId="120"/>
+    <cellStyle name="常规 11 7" xfId="119"/>
+    <cellStyle name="常规 13 42" xfId="120"/>
     <cellStyle name="常规 13 37" xfId="121"/>
-    <cellStyle name="常规 13 42" xfId="122"/>
-    <cellStyle name="常规 11 9" xfId="123"/>
+    <cellStyle name="常规 11 8" xfId="122"/>
+    <cellStyle name="常规 13 43" xfId="123"/>
     <cellStyle name="常规 13 38" xfId="124"/>
-    <cellStyle name="常规 13 43" xfId="125"/>
+    <cellStyle name="常规 11 9" xfId="125"/>
     <cellStyle name="常规 12" xfId="126"/>
     <cellStyle name="常规 13" xfId="127"/>
     <cellStyle name="常规 13 10" xfId="128"/>
@@ -4468,101 +4468,101 @@
     <cellStyle name="常规 13 12" xfId="130"/>
     <cellStyle name="常规 13 13" xfId="131"/>
     <cellStyle name="常规 13 14" xfId="132"/>
-    <cellStyle name="常规 13 15" xfId="133"/>
-    <cellStyle name="常规 13 20" xfId="134"/>
-    <cellStyle name="常规 13 16" xfId="135"/>
-    <cellStyle name="常规 13 21" xfId="136"/>
-    <cellStyle name="常规 13 17" xfId="137"/>
-    <cellStyle name="常规 13 22" xfId="138"/>
-    <cellStyle name="常规 13 18" xfId="139"/>
-    <cellStyle name="常规 13 23" xfId="140"/>
-    <cellStyle name="常规 13 19" xfId="141"/>
-    <cellStyle name="常规 13 24" xfId="142"/>
-    <cellStyle name="常规 13 2" xfId="143"/>
+    <cellStyle name="常规 13 20" xfId="133"/>
+    <cellStyle name="常规 13 15" xfId="134"/>
+    <cellStyle name="常规 13 21" xfId="135"/>
+    <cellStyle name="常规 13 16" xfId="136"/>
+    <cellStyle name="常规 13 22" xfId="137"/>
+    <cellStyle name="常规 13 17" xfId="138"/>
+    <cellStyle name="常规 13 23" xfId="139"/>
+    <cellStyle name="常规 13 18" xfId="140"/>
+    <cellStyle name="常规 13 24" xfId="141"/>
+    <cellStyle name="常规 13 19" xfId="142"/>
+    <cellStyle name="常规 4 42" xfId="143"/>
     <cellStyle name="常规 4 37" xfId="144"/>
-    <cellStyle name="常规 4 42" xfId="145"/>
-    <cellStyle name="常规 13 25" xfId="146"/>
-    <cellStyle name="常规 13 30" xfId="147"/>
-    <cellStyle name="常规 13 3" xfId="148"/>
+    <cellStyle name="常规 13 2" xfId="145"/>
+    <cellStyle name="常规 13 30" xfId="146"/>
+    <cellStyle name="常规 13 25" xfId="147"/>
+    <cellStyle name="常规 4 43" xfId="148"/>
     <cellStyle name="常规 4 38" xfId="149"/>
-    <cellStyle name="常规 4 43" xfId="150"/>
+    <cellStyle name="常规 13 3" xfId="150"/>
     <cellStyle name="常规 13 39" xfId="151"/>
-    <cellStyle name="常规 13 4" xfId="152"/>
-    <cellStyle name="常规 4 39" xfId="153"/>
+    <cellStyle name="常规 4 39" xfId="152"/>
+    <cellStyle name="常规 13 4" xfId="153"/>
     <cellStyle name="常规 13 6" xfId="154"/>
     <cellStyle name="常规 13 7" xfId="155"/>
     <cellStyle name="常规 13 8" xfId="156"/>
     <cellStyle name="常规 13 9" xfId="157"/>
     <cellStyle name="常规 14" xfId="158"/>
-    <cellStyle name="常规 15" xfId="159"/>
-    <cellStyle name="常规 20" xfId="160"/>
+    <cellStyle name="常规 20" xfId="159"/>
+    <cellStyle name="常规 15" xfId="160"/>
     <cellStyle name="常规 15 2" xfId="161"/>
-    <cellStyle name="常规 16" xfId="162"/>
-    <cellStyle name="常规 21" xfId="163"/>
-    <cellStyle name="常规 17" xfId="164"/>
-    <cellStyle name="常规 22" xfId="165"/>
+    <cellStyle name="常规 21" xfId="162"/>
+    <cellStyle name="常规 16" xfId="163"/>
+    <cellStyle name="常规 22" xfId="164"/>
+    <cellStyle name="常规 17" xfId="165"/>
     <cellStyle name="常规 18" xfId="166"/>
     <cellStyle name="常规 19" xfId="167"/>
-    <cellStyle name="常规 2" xfId="168"/>
+    <cellStyle name="超链接 2 22" xfId="168"/>
     <cellStyle name="超链接 2 17" xfId="169"/>
-    <cellStyle name="超链接 2 22" xfId="170"/>
-    <cellStyle name="常规 3" xfId="171"/>
+    <cellStyle name="常规 2" xfId="170"/>
+    <cellStyle name="超链接 2 23" xfId="171"/>
     <cellStyle name="超链接 2 18" xfId="172"/>
-    <cellStyle name="超链接 2 23" xfId="173"/>
+    <cellStyle name="常规 3" xfId="173"/>
     <cellStyle name="常规 3 10" xfId="174"/>
     <cellStyle name="常规 3 11" xfId="175"/>
     <cellStyle name="常规 3 12" xfId="176"/>
     <cellStyle name="常规 3 13" xfId="177"/>
-    <cellStyle name="常规 3 15" xfId="178"/>
-    <cellStyle name="常规 3 20" xfId="179"/>
-    <cellStyle name="常规 3 16" xfId="180"/>
-    <cellStyle name="常规 3 21" xfId="181"/>
-    <cellStyle name="常规 3 17" xfId="182"/>
-    <cellStyle name="常规 3 22" xfId="183"/>
-    <cellStyle name="常规 3 18" xfId="184"/>
-    <cellStyle name="常规 3 23" xfId="185"/>
-    <cellStyle name="常规 3 19" xfId="186"/>
-    <cellStyle name="常规 3 24" xfId="187"/>
+    <cellStyle name="常规 3 20" xfId="178"/>
+    <cellStyle name="常规 3 15" xfId="179"/>
+    <cellStyle name="常规 3 21" xfId="180"/>
+    <cellStyle name="常规 3 16" xfId="181"/>
+    <cellStyle name="常规 3 22" xfId="182"/>
+    <cellStyle name="常规 3 17" xfId="183"/>
+    <cellStyle name="常规 3 23" xfId="184"/>
+    <cellStyle name="常规 3 18" xfId="185"/>
+    <cellStyle name="常规 3 24" xfId="186"/>
+    <cellStyle name="常规 3 19" xfId="187"/>
     <cellStyle name="常规 3 2" xfId="188"/>
-    <cellStyle name="常规 3 25" xfId="189"/>
-    <cellStyle name="常规 3 30" xfId="190"/>
-    <cellStyle name="常规 3 26" xfId="191"/>
-    <cellStyle name="常规 3 31" xfId="192"/>
-    <cellStyle name="常规 3 28" xfId="193"/>
-    <cellStyle name="常规 3 33" xfId="194"/>
-    <cellStyle name="常规 3 29" xfId="195"/>
-    <cellStyle name="常规 3 34" xfId="196"/>
+    <cellStyle name="常规 3 30" xfId="189"/>
+    <cellStyle name="常规 3 25" xfId="190"/>
+    <cellStyle name="常规 3 31" xfId="191"/>
+    <cellStyle name="常规 3 26" xfId="192"/>
+    <cellStyle name="常规 3 33" xfId="193"/>
+    <cellStyle name="常规 3 28" xfId="194"/>
+    <cellStyle name="常规 3 34" xfId="195"/>
+    <cellStyle name="常规 3 29" xfId="196"/>
     <cellStyle name="常规 3 3" xfId="197"/>
-    <cellStyle name="常规 3 35" xfId="198"/>
-    <cellStyle name="常规 3 40" xfId="199"/>
-    <cellStyle name="常规 3 36" xfId="200"/>
-    <cellStyle name="常规 3 41" xfId="201"/>
-    <cellStyle name="常规 3 37" xfId="202"/>
-    <cellStyle name="常规 3 42" xfId="203"/>
-    <cellStyle name="常规 3 38" xfId="204"/>
-    <cellStyle name="常规 3 43" xfId="205"/>
-    <cellStyle name="常规 3 39" xfId="206"/>
-    <cellStyle name="常规 3 44" xfId="207"/>
+    <cellStyle name="常规 3 40" xfId="198"/>
+    <cellStyle name="常规 3 35" xfId="199"/>
+    <cellStyle name="常规 3 41" xfId="200"/>
+    <cellStyle name="常规 3 36" xfId="201"/>
+    <cellStyle name="常规 3 42" xfId="202"/>
+    <cellStyle name="常规 3 37" xfId="203"/>
+    <cellStyle name="常规 3 43" xfId="204"/>
+    <cellStyle name="常规 3 38" xfId="205"/>
+    <cellStyle name="常规 3 44" xfId="206"/>
+    <cellStyle name="常规 3 39" xfId="207"/>
     <cellStyle name="常规 3 4" xfId="208"/>
-    <cellStyle name="常规 3 45" xfId="209"/>
-    <cellStyle name="常规 3 50" xfId="210"/>
-    <cellStyle name="常规 3 46" xfId="211"/>
-    <cellStyle name="常规 3 51" xfId="212"/>
-    <cellStyle name="常规 3 48" xfId="213"/>
-    <cellStyle name="常规 3 53" xfId="214"/>
-    <cellStyle name="常规 3 49" xfId="215"/>
-    <cellStyle name="常规 3 54" xfId="216"/>
+    <cellStyle name="常规 3 50" xfId="209"/>
+    <cellStyle name="常规 3 45" xfId="210"/>
+    <cellStyle name="常规 3 51" xfId="211"/>
+    <cellStyle name="常规 3 46" xfId="212"/>
+    <cellStyle name="常规 3 53" xfId="213"/>
+    <cellStyle name="常规 3 48" xfId="214"/>
+    <cellStyle name="常规 3 54" xfId="215"/>
+    <cellStyle name="常规 3 49" xfId="216"/>
     <cellStyle name="常规 3 5" xfId="217"/>
-    <cellStyle name="常规 3 55" xfId="218"/>
-    <cellStyle name="常规 3 60" xfId="219"/>
-    <cellStyle name="常规 3 56" xfId="220"/>
-    <cellStyle name="常规 3 61" xfId="221"/>
-    <cellStyle name="常规 3 57" xfId="222"/>
-    <cellStyle name="常规 3 62" xfId="223"/>
-    <cellStyle name="常规 3 58" xfId="224"/>
-    <cellStyle name="常规 3 63" xfId="225"/>
-    <cellStyle name="常规 3 59" xfId="226"/>
-    <cellStyle name="常规 3 64" xfId="227"/>
+    <cellStyle name="常规 3 60" xfId="218"/>
+    <cellStyle name="常规 3 55" xfId="219"/>
+    <cellStyle name="常规 3 61" xfId="220"/>
+    <cellStyle name="常规 3 56" xfId="221"/>
+    <cellStyle name="常规 3 62" xfId="222"/>
+    <cellStyle name="常规 3 57" xfId="223"/>
+    <cellStyle name="常规 3 63" xfId="224"/>
+    <cellStyle name="常规 3 58" xfId="225"/>
+    <cellStyle name="常规 3 64" xfId="226"/>
+    <cellStyle name="常规 3 59" xfId="227"/>
     <cellStyle name="常规 3 6" xfId="228"/>
     <cellStyle name="常规 3 65" xfId="229"/>
     <cellStyle name="常规 3 66" xfId="230"/>
@@ -4572,71 +4572,71 @@
     <cellStyle name="常规 3 7" xfId="234"/>
     <cellStyle name="常规 3 8" xfId="235"/>
     <cellStyle name="常规 3 9" xfId="236"/>
-    <cellStyle name="常规 4" xfId="237"/>
+    <cellStyle name="超链接 2 24" xfId="237"/>
     <cellStyle name="超链接 2 19" xfId="238"/>
-    <cellStyle name="超链接 2 24" xfId="239"/>
+    <cellStyle name="常规 4" xfId="239"/>
     <cellStyle name="常规 4 10" xfId="240"/>
-    <cellStyle name="常规 4 17" xfId="241"/>
-    <cellStyle name="常规 4 22" xfId="242"/>
-    <cellStyle name="常规 4 18" xfId="243"/>
-    <cellStyle name="常规 4 23" xfId="244"/>
-    <cellStyle name="常规 4 19" xfId="245"/>
-    <cellStyle name="常规 4 24" xfId="246"/>
+    <cellStyle name="常规 4 22" xfId="241"/>
+    <cellStyle name="常规 4 17" xfId="242"/>
+    <cellStyle name="常规 4 23" xfId="243"/>
+    <cellStyle name="常规 4 18" xfId="244"/>
+    <cellStyle name="常规 4 24" xfId="245"/>
+    <cellStyle name="常规 4 19" xfId="246"/>
     <cellStyle name="常规 4 2" xfId="247"/>
-    <cellStyle name="常规 4 25" xfId="248"/>
-    <cellStyle name="常规 4 30" xfId="249"/>
-    <cellStyle name="常规 4 26" xfId="250"/>
-    <cellStyle name="常规 4 31" xfId="251"/>
-    <cellStyle name="常规 4 27" xfId="252"/>
-    <cellStyle name="常规 4 32" xfId="253"/>
-    <cellStyle name="常规 4 28" xfId="254"/>
-    <cellStyle name="常规 4 33" xfId="255"/>
-    <cellStyle name="常规 4 29" xfId="256"/>
-    <cellStyle name="常规 4 34" xfId="257"/>
+    <cellStyle name="常规 4 30" xfId="248"/>
+    <cellStyle name="常规 4 25" xfId="249"/>
+    <cellStyle name="常规 4 31" xfId="250"/>
+    <cellStyle name="常规 4 26" xfId="251"/>
+    <cellStyle name="常规 4 32" xfId="252"/>
+    <cellStyle name="常规 4 27" xfId="253"/>
+    <cellStyle name="常规 4 33" xfId="254"/>
+    <cellStyle name="常规 4 28" xfId="255"/>
+    <cellStyle name="常规 4 34" xfId="256"/>
+    <cellStyle name="常规 4 29" xfId="257"/>
     <cellStyle name="常规 4 3" xfId="258"/>
-    <cellStyle name="常规 4 35" xfId="259"/>
-    <cellStyle name="常规 4 40" xfId="260"/>
-    <cellStyle name="常规 4 36" xfId="261"/>
-    <cellStyle name="常规 4 41" xfId="262"/>
+    <cellStyle name="常规 4 40" xfId="259"/>
+    <cellStyle name="常规 4 35" xfId="260"/>
+    <cellStyle name="常规 4 41" xfId="261"/>
+    <cellStyle name="常规 4 36" xfId="262"/>
     <cellStyle name="常规 4 4" xfId="263"/>
     <cellStyle name="常规 4 5" xfId="264"/>
     <cellStyle name="常规 4 6" xfId="265"/>
     <cellStyle name="常规 4 7" xfId="266"/>
-    <cellStyle name="常规 4 8" xfId="267"/>
-    <cellStyle name="標準_管理画面_画面設計_1.0.1_081107" xfId="268"/>
+    <cellStyle name="標準_管理画面_画面設計_1.0.1_081107" xfId="267"/>
+    <cellStyle name="常规 4 8" xfId="268"/>
     <cellStyle name="常规 4 9" xfId="269"/>
-    <cellStyle name="常规 5" xfId="270"/>
+    <cellStyle name="超链接 2 30" xfId="270"/>
     <cellStyle name="超链接 2 25" xfId="271"/>
-    <cellStyle name="超链接 2 30" xfId="272"/>
-    <cellStyle name="常规 7" xfId="273"/>
+    <cellStyle name="常规 5" xfId="272"/>
+    <cellStyle name="超链接 2 32" xfId="273"/>
     <cellStyle name="超链接 2 27" xfId="274"/>
-    <cellStyle name="超链接 2 32" xfId="275"/>
-    <cellStyle name="常规 8" xfId="276"/>
+    <cellStyle name="常规 7" xfId="275"/>
+    <cellStyle name="超链接 2 33" xfId="276"/>
     <cellStyle name="超链接 2 28" xfId="277"/>
-    <cellStyle name="超链接 2 33" xfId="278"/>
-    <cellStyle name="常规 9" xfId="279"/>
+    <cellStyle name="常规 8" xfId="278"/>
+    <cellStyle name="超链接 2 34" xfId="279"/>
     <cellStyle name="超链接 2 29" xfId="280"/>
-    <cellStyle name="超链接 2 34" xfId="281"/>
+    <cellStyle name="常规 9" xfId="281"/>
     <cellStyle name="超链接 2" xfId="282"/>
     <cellStyle name="超链接 2 10" xfId="283"/>
     <cellStyle name="超链接 2 11" xfId="284"/>
     <cellStyle name="超链接 2 12" xfId="285"/>
     <cellStyle name="超链接 2 13" xfId="286"/>
     <cellStyle name="超链接 2 14" xfId="287"/>
-    <cellStyle name="超链接 2 15" xfId="288"/>
-    <cellStyle name="超链接 2 20" xfId="289"/>
-    <cellStyle name="超链接 2 16" xfId="290"/>
-    <cellStyle name="超链接 2 21" xfId="291"/>
+    <cellStyle name="超链接 2 20" xfId="288"/>
+    <cellStyle name="超链接 2 15" xfId="289"/>
+    <cellStyle name="超链接 2 21" xfId="290"/>
+    <cellStyle name="超链接 2 16" xfId="291"/>
     <cellStyle name="超链接 2 2" xfId="292"/>
     <cellStyle name="超链接 2 3" xfId="293"/>
-    <cellStyle name="超链接 2 35" xfId="294"/>
-    <cellStyle name="超链接 2 40" xfId="295"/>
-    <cellStyle name="超链接 2 36" xfId="296"/>
-    <cellStyle name="超链接 2 41" xfId="297"/>
-    <cellStyle name="超链接 2 37" xfId="298"/>
-    <cellStyle name="超链接 2 42" xfId="299"/>
-    <cellStyle name="超链接 2 38" xfId="300"/>
-    <cellStyle name="超链接 2 43" xfId="301"/>
+    <cellStyle name="超链接 2 40" xfId="294"/>
+    <cellStyle name="超链接 2 35" xfId="295"/>
+    <cellStyle name="超链接 2 41" xfId="296"/>
+    <cellStyle name="超链接 2 36" xfId="297"/>
+    <cellStyle name="超链接 2 42" xfId="298"/>
+    <cellStyle name="超链接 2 37" xfId="299"/>
+    <cellStyle name="超链接 2 43" xfId="300"/>
+    <cellStyle name="超链接 2 38" xfId="301"/>
     <cellStyle name="超链接 2 39" xfId="302"/>
     <cellStyle name="超链接 2 4" xfId="303"/>
     <cellStyle name="超链接 2 5" xfId="304"/>
@@ -10466,7 +10466,7 @@
     </row>
     <row r="6" spans="2:21">
       <c r="B6" s="8">
-        <f t="shared" ref="B6:B16" si="0">ROW()-5</f>
+        <f t="shared" ref="B6:B17" si="0">ROW()-5</f>
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -10644,7 +10644,6 @@
       <c r="I10" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="J10" s="3"/>
       <c r="K10" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Acquisition SMALLINT NOT NULL ,</v>
@@ -10828,7 +10827,7 @@
     </row>
     <row r="15" s="37" customFormat="1" spans="2:21">
       <c r="B15" s="23">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C15" s="39" t="s">
@@ -10849,7 +10848,7 @@
     </row>
     <row r="16" s="1" customFormat="1" spans="2:21">
       <c r="B16" s="14">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -10886,7 +10885,7 @@
     </row>
     <row r="17" s="1" customFormat="1" spans="2:21">
       <c r="B17" s="14">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -11107,18 +11106,8 @@
       <c r="H32" s="44" t="s">
         <v>364</v>
       </c>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
       <c r="K32" s="45"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
       <c r="P32" s="46"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
       <c r="U32" s="47"/>
     </row>
   </sheetData>
@@ -14513,8 +14502,8 @@
   </sheetPr>
   <dimension ref="B2:U44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.5"/>
@@ -14609,7 +14598,7 @@
     </row>
     <row r="6" ht="16.5" customHeight="1" spans="2:21">
       <c r="B6" s="8">
-        <f>ROW()-5</f>
+        <f t="shared" ref="B6:B19" si="0">ROW()-5</f>
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -14630,11 +14619,11 @@
       <c r="H6" s="8"/>
       <c r="I6" s="9"/>
       <c r="K6" s="4" t="str">
-        <f>IF(D6="","",D6&amp;" "&amp;IF(E6="decimal","decimal(18,0) IDENTITY(1,1)",E6)&amp;" "&amp;IF(G6="√","NOT NULL","")&amp;" "&amp;IF(C7&lt;&gt;"",",",");"))</f>
+        <f t="shared" ref="K6:K18" si="1">IF(D6="","",D6&amp;" "&amp;IF(E6="decimal","decimal(18,0) IDENTITY(1,1)",E6)&amp;" "&amp;IF(G6="√","NOT NULL","")&amp;" "&amp;IF(C7&lt;&gt;"",",",");"))</f>
         <v>Manual_id BIGINT NOT NULL ,</v>
       </c>
       <c r="P6" s="5" t="str">
-        <f>IF(F6&lt;&gt;"",D6&amp;" ASC "&amp;IF(F7&lt;&gt;"",",",")"),"")</f>
+        <f t="shared" ref="P6:P18" si="2">IF(F6&lt;&gt;"",D6&amp;" ASC "&amp;IF(F7&lt;&gt;"",",",")"),"")</f>
         <v>Manual_id ASC ,</v>
       </c>
       <c r="R6" s="13" t="str">
@@ -14648,7 +14637,7 @@
     </row>
     <row r="7" ht="16.5" customHeight="1" spans="2:21">
       <c r="B7" s="8">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C7" s="17" t="s">
@@ -14671,11 +14660,11 @@
         <v>373</v>
       </c>
       <c r="K7" s="4" t="str">
-        <f>IF(D7="","",D7&amp;" "&amp;IF(E7="decimal","decimal(18,0) IDENTITY(1,1)",E7)&amp;" "&amp;IF(G7="√","NOT NULL","")&amp;" "&amp;IF(C8&lt;&gt;"",",",");"))</f>
+        <f t="shared" si="1"/>
         <v>Step_seq INT NOT NULL ,</v>
       </c>
       <c r="P7" s="5" t="str">
-        <f>IF(F7&lt;&gt;"",D7&amp;" ASC "&amp;IF(F8&lt;&gt;"",",",")"),"")</f>
+        <f t="shared" si="2"/>
         <v>Step_seq ASC )</v>
       </c>
       <c r="R7" s="13" t="str">
@@ -14689,7 +14678,7 @@
     </row>
     <row r="8" ht="16.5" customHeight="1" spans="2:21">
       <c r="B8" s="8">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -14708,11 +14697,11 @@
       <c r="H8" s="16"/>
       <c r="I8" s="17"/>
       <c r="K8" s="4" t="str">
-        <f>IF(D8="","",D8&amp;" "&amp;IF(E8="decimal","decimal(18,0) IDENTITY(1,1)",E8)&amp;" "&amp;IF(G8="√","NOT NULL","")&amp;" "&amp;IF(C9&lt;&gt;"",",",");"))</f>
+        <f t="shared" si="1"/>
         <v>Type_id BIGINT NOT NULL ,</v>
       </c>
       <c r="P8" s="5" t="str">
-        <f>IF(F8&lt;&gt;"",D8&amp;" ASC "&amp;IF(F9&lt;&gt;"",",",")"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R8" s="13" t="str">
@@ -14726,7 +14715,7 @@
     </row>
     <row r="9" ht="16.5" customHeight="1" spans="2:21">
       <c r="B9" s="8">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -14745,11 +14734,11 @@
       <c r="H9" s="8"/>
       <c r="I9" s="9"/>
       <c r="K9" s="4" t="str">
-        <f>IF(D9="","",D9&amp;" "&amp;IF(E9="decimal","decimal(18,0) IDENTITY(1,1)",E9)&amp;" "&amp;IF(G9="√","NOT NULL","")&amp;" "&amp;IF(C10&lt;&gt;"",",",");"))</f>
+        <f t="shared" si="1"/>
         <v>Step_name VARCHAR(50) NOT NULL ,</v>
       </c>
       <c r="P9" s="5" t="str">
-        <f>IF(F9&lt;&gt;"",D9&amp;" ASC "&amp;IF(F10&lt;&gt;"",",",")"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R9" s="13" t="str">
@@ -14763,7 +14752,7 @@
     </row>
     <row r="10" ht="16.5" customHeight="1" spans="2:21">
       <c r="B10" s="8">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -14782,11 +14771,11 @@
       </c>
       <c r="I10" s="17"/>
       <c r="K10" s="4" t="str">
-        <f>IF(D10="","",D10&amp;" "&amp;IF(E10="decimal","decimal(18,0) IDENTITY(1,1)",E10)&amp;" "&amp;IF(G10="√","NOT NULL","")&amp;" "&amp;IF(C11&lt;&gt;"",",",");"))</f>
+        <f t="shared" si="1"/>
         <v>Step_gmt VARCHAR(50)  ,</v>
       </c>
       <c r="P10" s="5" t="str">
-        <f>IF(F10&lt;&gt;"",D10&amp;" ASC "&amp;IF(F11&lt;&gt;"",",",")"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R10" s="13" t="str">
@@ -14800,7 +14789,7 @@
     </row>
     <row r="11" ht="29" spans="2:21">
       <c r="B11" s="8">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C11" s="21" t="s">
@@ -14823,11 +14812,11 @@
         <v>380</v>
       </c>
       <c r="K11" s="4" t="str">
-        <f>IF(D11="","",D11&amp;" "&amp;IF(E11="decimal","decimal(18,0) IDENTITY(1,1)",E11)&amp;" "&amp;IF(G11="√","NOT NULL","")&amp;" "&amp;IF(C12&lt;&gt;"",",",");"))</f>
+        <f t="shared" si="1"/>
         <v>Processes_tag SMALLINT NOT NULL ,</v>
       </c>
       <c r="P11" s="5" t="str">
-        <f>IF(F11&lt;&gt;"",D11&amp;" ASC "&amp;IF(F12&lt;&gt;"",",",")"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R11" s="13" t="str">
@@ -14841,7 +14830,7 @@
     </row>
     <row r="12" ht="16.5" customHeight="1" spans="2:21">
       <c r="B12" s="8">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -14864,11 +14853,11 @@
         <v>383</v>
       </c>
       <c r="K12" s="4" t="str">
-        <f>IF(D12="","",D12&amp;" "&amp;IF(E12="decimal","decimal(18,0) IDENTITY(1,1)",E12)&amp;" "&amp;IF(G12="√","NOT NULL","")&amp;" "&amp;IF(C13&lt;&gt;"",",",");"))</f>
+        <f t="shared" si="1"/>
         <v>Step_model SMALLINT NOT NULL ,</v>
       </c>
       <c r="P12" s="5" t="str">
-        <f>IF(F12&lt;&gt;"",D12&amp;" ASC "&amp;IF(F13&lt;&gt;"",",",")"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R12" s="13" t="str">
@@ -14882,7 +14871,7 @@
     </row>
     <row r="13" ht="16.5" customHeight="1" spans="2:21">
       <c r="B13" s="8">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C13" s="21" t="s">
@@ -14901,11 +14890,11 @@
       </c>
       <c r="I13" s="26"/>
       <c r="K13" s="4" t="str">
-        <f>IF(D13="","",D13&amp;" "&amp;IF(E13="decimal","decimal(18,0) IDENTITY(1,1)",E13)&amp;" "&amp;IF(G13="√","NOT NULL","")&amp;" "&amp;IF(C14&lt;&gt;"",",",");"))</f>
+        <f t="shared" si="1"/>
         <v>Step_branch INT  ,</v>
       </c>
       <c r="P13" s="5" t="str">
-        <f>IF(F13&lt;&gt;"",D13&amp;" ASC "&amp;IF(F14&lt;&gt;"",",",")"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R13" s="13" t="str">
@@ -14919,7 +14908,7 @@
     </row>
     <row r="14" ht="16.5" customHeight="1" spans="2:21">
       <c r="B14" s="8">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -14940,11 +14929,11 @@
         <v>389</v>
       </c>
       <c r="K14" s="4" t="str">
-        <f>IF(D14="","",D14&amp;" "&amp;IF(E14="decimal","decimal(18,0) IDENTITY(1,1)",E14)&amp;" "&amp;IF(G14="√","NOT NULL","")&amp;" "&amp;IF(C15&lt;&gt;"",",",");"))</f>
+        <f t="shared" si="1"/>
         <v>Step_completion  bit NOT NULL ,</v>
       </c>
       <c r="P14" s="5" t="str">
-        <f>IF(F14&lt;&gt;"",D14&amp;" ASC "&amp;IF(F15&lt;&gt;"",",",")"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R14" s="13" t="str">
@@ -14958,7 +14947,7 @@
     </row>
     <row r="15" ht="16.5" customHeight="1" spans="2:21">
       <c r="B15" s="8">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C15" s="17" t="s">
@@ -14977,11 +14966,11 @@
         <v>392</v>
       </c>
       <c r="K15" s="4" t="str">
-        <f>IF(D15="","",D15&amp;" "&amp;IF(E15="decimal","decimal(18,0) IDENTITY(1,1)",E15)&amp;" "&amp;IF(G15="√","NOT NULL","")&amp;" "&amp;IF(C16&lt;&gt;"",",",");"))</f>
+        <f t="shared" si="1"/>
         <v>Step_image VARCHAR(200)  ,</v>
       </c>
       <c r="P15" s="5" t="str">
-        <f>IF(F15&lt;&gt;"",D15&amp;" ASC "&amp;IF(F16&lt;&gt;"",",",")"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R15" s="13" t="str">
@@ -14995,7 +14984,7 @@
     </row>
     <row r="16" ht="16.5" customHeight="1" spans="2:21">
       <c r="B16" s="8">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C16" s="17" t="s">
@@ -15014,11 +15003,11 @@
         <v>392</v>
       </c>
       <c r="K16" s="4" t="str">
-        <f>IF(D16="","",D16&amp;" "&amp;IF(E16="decimal","decimal(18,0) IDENTITY(1,1)",E16)&amp;" "&amp;IF(G16="√","NOT NULL","")&amp;" "&amp;IF(C17&lt;&gt;"",",",");"))</f>
+        <f t="shared" si="1"/>
         <v>Step_sound VARCHAR(200)  ,</v>
       </c>
       <c r="P16" s="5" t="str">
-        <f>IF(F16&lt;&gt;"",D16&amp;" ASC "&amp;IF(F17&lt;&gt;"",",",")"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R16" s="13" t="str">
@@ -15032,7 +15021,7 @@
     </row>
     <row r="17" ht="16.5" customHeight="1" spans="2:21">
       <c r="B17" s="8">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C17" s="17" t="s">
@@ -15051,11 +15040,11 @@
         <v>392</v>
       </c>
       <c r="K17" s="4" t="str">
-        <f>IF(D17="","",D17&amp;" "&amp;IF(E17="decimal","decimal(18,0) IDENTITY(1,1)",E17)&amp;" "&amp;IF(G17="√","NOT NULL","")&amp;" "&amp;IF(C18&lt;&gt;"",",",");"))</f>
+        <f t="shared" si="1"/>
         <v>Step_note VARCHAR(200)  ,</v>
       </c>
       <c r="P17" s="5" t="str">
-        <f>IF(F17&lt;&gt;"",D17&amp;" ASC "&amp;IF(F18&lt;&gt;"",",",")"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R17" s="13" t="str">
@@ -15069,7 +15058,7 @@
     </row>
     <row r="18" ht="16.5" customHeight="1" spans="2:21">
       <c r="B18" s="8">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C18" s="22" t="s">
@@ -15086,11 +15075,11 @@
       <c r="H18" s="16"/>
       <c r="I18" s="17"/>
       <c r="K18" s="4" t="str">
-        <f>IF(D18="","",D18&amp;" "&amp;IF(E18="decimal","decimal(18,0) IDENTITY(1,1)",E18)&amp;" "&amp;IF(G18="√","NOT NULL","")&amp;" "&amp;IF(C19&lt;&gt;"",",",");"))</f>
+        <f t="shared" si="1"/>
         <v>Automatic_judglogic  VARCHAR(50)  ,</v>
       </c>
       <c r="P18" s="5" t="str">
-        <f>IF(F18&lt;&gt;"",D18&amp;" ASC "&amp;IF(F19&lt;&gt;"",",",")"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R18" s="13" t="str">
@@ -15104,7 +15093,7 @@
     </row>
     <row r="19" ht="16.5" customHeight="1" spans="2:21">
       <c r="B19" s="8">
-        <f>ROW()-5</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C19" s="17" t="s">
@@ -15152,22 +15141,14 @@
       <c r="I20" s="28" t="s">
         <v>403</v>
       </c>
-      <c r="J20" s="20"/>
       <c r="K20" s="29"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
       <c r="P20" s="30"/>
-      <c r="Q20" s="20"/>
       <c r="R20" s="35"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
       <c r="U20" s="36"/>
     </row>
     <row r="21" ht="16.5" customHeight="1" spans="2:21">
       <c r="B21" s="8">
-        <f t="shared" ref="B21:B35" si="0">ROW()-5</f>
+        <f t="shared" ref="B21:B35" si="3">ROW()-5</f>
         <v>16</v>
       </c>
       <c r="C21" s="17" t="s">
@@ -15204,7 +15185,7 @@
     </row>
     <row r="22" ht="16.5" customHeight="1" spans="2:21">
       <c r="B22" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="C22" s="17" t="s">
@@ -15241,7 +15222,7 @@
     </row>
     <row r="23" ht="16.5" customHeight="1" spans="2:21">
       <c r="B23" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="C23" s="17" t="s">
@@ -15289,17 +15270,9 @@
       <c r="I24" s="32" t="s">
         <v>412</v>
       </c>
-      <c r="J24" s="20"/>
       <c r="K24" s="29"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
       <c r="P24" s="30"/>
-      <c r="Q24" s="20"/>
       <c r="R24" s="35"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
       <c r="U24" s="36"/>
     </row>
     <row r="25" s="20" customFormat="1" ht="16.5" customHeight="1" spans="2:21">
@@ -15317,17 +15290,9 @@
       <c r="I25" s="32" t="s">
         <v>414</v>
       </c>
-      <c r="J25" s="20"/>
       <c r="K25" s="29"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
       <c r="P25" s="30"/>
-      <c r="Q25" s="20"/>
       <c r="R25" s="35"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
       <c r="U25" s="36"/>
     </row>
     <row r="26" ht="16.5" customHeight="1" spans="2:18">
@@ -15358,17 +15323,9 @@
       <c r="I27" s="32" t="s">
         <v>418</v>
       </c>
-      <c r="J27" s="20"/>
       <c r="K27" s="29"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
       <c r="P27" s="30"/>
-      <c r="Q27" s="20"/>
       <c r="R27" s="35"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
       <c r="U27" s="36"/>
     </row>
     <row r="28" s="20" customFormat="1" ht="16.5" customHeight="1" spans="2:21">
@@ -15384,17 +15341,9 @@
       <c r="I28" s="32" t="s">
         <v>418</v>
       </c>
-      <c r="J28" s="20"/>
       <c r="K28" s="29"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
       <c r="P28" s="30"/>
-      <c r="Q28" s="20"/>
       <c r="R28" s="35"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
       <c r="U28" s="36"/>
     </row>
     <row r="29" s="20" customFormat="1" ht="16.5" customHeight="1" spans="2:21">
@@ -15410,17 +15359,9 @@
       <c r="I29" s="32" t="s">
         <v>420</v>
       </c>
-      <c r="J29" s="20"/>
       <c r="K29" s="29"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
       <c r="P29" s="30"/>
-      <c r="Q29" s="20"/>
       <c r="R29" s="35"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
       <c r="U29" s="36"/>
     </row>
     <row r="30" s="20" customFormat="1" ht="16.5" customHeight="1" spans="2:21">
@@ -15436,22 +15377,14 @@
       <c r="I30" s="32" t="s">
         <v>422</v>
       </c>
-      <c r="J30" s="20"/>
       <c r="K30" s="29"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
       <c r="P30" s="30"/>
-      <c r="Q30" s="20"/>
       <c r="R30" s="35"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
       <c r="U30" s="36"/>
     </row>
     <row r="31" ht="16.5" customHeight="1" spans="2:21">
       <c r="B31" s="8">
-        <f>ROW()-5</f>
+        <f t="shared" ref="B31:B42" si="4">ROW()-5</f>
         <v>26</v>
       </c>
       <c r="C31" s="17" t="s">
@@ -15470,11 +15403,11 @@
         <v>425</v>
       </c>
       <c r="K31" s="4" t="str">
-        <f>IF(D31="","",D31&amp;" "&amp;IF(E31="decimal","decimal(18,0) IDENTITY(1,1)",E31)&amp;" "&amp;IF(G31="√","NOT NULL","")&amp;" "&amp;IF(C32&lt;&gt;"",",",");"))</f>
+        <f t="shared" ref="K31:K42" si="5">IF(D31="","",D31&amp;" "&amp;IF(E31="decimal","decimal(18,0) IDENTITY(1,1)",E31)&amp;" "&amp;IF(G31="√","NOT NULL","")&amp;" "&amp;IF(C32&lt;&gt;"",",",");"))</f>
         <v>Program_no VARCHAR(20)  ,</v>
       </c>
       <c r="P31" s="5" t="str">
-        <f>IF(F31&lt;&gt;"",D31&amp;" ASC "&amp;IF(F32&lt;&gt;"",",",")"),"")</f>
+        <f t="shared" ref="P31:P42" si="6">IF(F31&lt;&gt;"",D31&amp;" ASC "&amp;IF(F32&lt;&gt;"",",",")"),"")</f>
         <v/>
       </c>
       <c r="R31" s="13" t="str">
@@ -15488,7 +15421,7 @@
     </row>
     <row r="32" ht="16.5" customHeight="1" spans="2:21">
       <c r="B32" s="8">
-        <f>ROW()-5</f>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="C32" s="17" t="s">
@@ -15507,11 +15440,11 @@
         <v>425</v>
       </c>
       <c r="K32" s="4" t="str">
-        <f>IF(D32="","",D32&amp;" "&amp;IF(E32="decimal","decimal(18,0) IDENTITY(1,1)",E32)&amp;" "&amp;IF(G32="√","NOT NULL","")&amp;" "&amp;IF(C33&lt;&gt;"",",",");"))</f>
+        <f t="shared" si="5"/>
         <v>Program_name VARCHAR(50)  ,</v>
       </c>
       <c r="P32" s="5" t="str">
-        <f>IF(F32&lt;&gt;"",D32&amp;" ASC "&amp;IF(F33&lt;&gt;"",",",")"),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R32" s="13" t="str">
@@ -15525,7 +15458,7 @@
     </row>
     <row r="33" ht="16.5" customHeight="1" spans="2:21">
       <c r="B33" s="8">
-        <f>ROW()-5</f>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="C33" s="17" t="s">
@@ -15544,11 +15477,11 @@
         <v>425</v>
       </c>
       <c r="K33" s="4" t="str">
-        <f>IF(D33="","",D33&amp;" "&amp;IF(E33="decimal","decimal(18,0) IDENTITY(1,1)",E33)&amp;" "&amp;IF(G33="√","NOT NULL","")&amp;" "&amp;IF(C34&lt;&gt;"",",",");"))</f>
+        <f t="shared" si="5"/>
         <v>Torque_value VARCHAR(20)  ,</v>
       </c>
       <c r="P33" s="5" t="str">
-        <f>IF(F33&lt;&gt;"",D33&amp;" ASC "&amp;IF(F34&lt;&gt;"",",",")"),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R33" s="13" t="str">
@@ -15562,7 +15495,7 @@
     </row>
     <row r="34" ht="29" spans="2:21">
       <c r="B34" s="8">
-        <f>ROW()-5</f>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="C34" s="17" t="s">
@@ -15581,11 +15514,11 @@
         <v>432</v>
       </c>
       <c r="K34" s="4" t="str">
-        <f>IF(D34="","",D34&amp;" "&amp;IF(E34="decimal","decimal(18,0) IDENTITY(1,1)",E34)&amp;" "&amp;IF(G34="√","NOT NULL","")&amp;" "&amp;IF(C35&lt;&gt;"",",",");"))</f>
+        <f t="shared" si="5"/>
         <v>Decision_type bit  ,</v>
       </c>
       <c r="P34" s="5" t="str">
-        <f>IF(F34&lt;&gt;"",D34&amp;" ASC "&amp;IF(F35&lt;&gt;"",",",")"),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R34" s="13" t="str">
@@ -15599,7 +15532,7 @@
     </row>
     <row r="35" ht="16.5" customHeight="1" spans="2:21">
       <c r="B35" s="8">
-        <f>ROW()-5</f>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="C35" s="17" t="s">
@@ -15618,11 +15551,11 @@
         <v>425</v>
       </c>
       <c r="K35" s="4" t="str">
-        <f>IF(D35="","",D35&amp;" "&amp;IF(E35="decimal","decimal(18,0) IDENTITY(1,1)",E35)&amp;" "&amp;IF(G35="√","NOT NULL","")&amp;" "&amp;IF(C36&lt;&gt;"",",",");"))</f>
+        <f t="shared" si="5"/>
         <v>Torque_lower VARCHAR(20)  ,</v>
       </c>
       <c r="P35" s="5" t="str">
-        <f>IF(F35&lt;&gt;"",D35&amp;" ASC "&amp;IF(F36&lt;&gt;"",",",")"),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R35" s="13" t="str">
@@ -15636,7 +15569,7 @@
     </row>
     <row r="36" ht="16.5" customHeight="1" spans="2:21">
       <c r="B36" s="8">
-        <f>ROW()-5</f>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="C36" s="17" t="s">
@@ -15655,11 +15588,11 @@
         <v>425</v>
       </c>
       <c r="K36" s="4" t="str">
-        <f>IF(D36="","",D36&amp;" "&amp;IF(E36="decimal","decimal(18,0) IDENTITY(1,1)",E36)&amp;" "&amp;IF(G36="√","NOT NULL","")&amp;" "&amp;IF(C37&lt;&gt;"",",",");"))</f>
+        <f t="shared" si="5"/>
         <v>Torque_upper VARCHAR(20)  ,</v>
       </c>
       <c r="P36" s="5" t="str">
-        <f>IF(F36&lt;&gt;"",D36&amp;" ASC "&amp;IF(F37&lt;&gt;"",",",")"),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R36" s="13" t="str">
@@ -15673,7 +15606,7 @@
     </row>
     <row r="37" ht="16.5" customHeight="1" spans="2:21">
       <c r="B37" s="8">
-        <f>ROW()-5</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="C37" s="17" t="s">
@@ -15692,11 +15625,11 @@
         <v>425</v>
       </c>
       <c r="K37" s="4" t="str">
-        <f>IF(D37="","",D37&amp;" "&amp;IF(E37="decimal","decimal(18,0) IDENTITY(1,1)",E37)&amp;" "&amp;IF(G37="√","NOT NULL","")&amp;" "&amp;IF(C38&lt;&gt;"",",",");"))</f>
+        <f t="shared" si="5"/>
         <v>Time_lower VARCHAR(20)  ,</v>
       </c>
       <c r="P37" s="5" t="str">
-        <f>IF(F37&lt;&gt;"",D37&amp;" ASC "&amp;IF(F38&lt;&gt;"",",",")"),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R37" s="13" t="str">
@@ -15710,7 +15643,7 @@
     </row>
     <row r="38" ht="16.5" customHeight="1" spans="2:21">
       <c r="B38" s="8">
-        <f>ROW()-5</f>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="C38" s="17" t="s">
@@ -15729,11 +15662,11 @@
         <v>425</v>
       </c>
       <c r="K38" s="4" t="str">
-        <f>IF(D38="","",D38&amp;" "&amp;IF(E38="decimal","decimal(18,0) IDENTITY(1,1)",E38)&amp;" "&amp;IF(G38="√","NOT NULL","")&amp;" "&amp;IF(C39&lt;&gt;"",",",");"))</f>
+        <f t="shared" si="5"/>
         <v>Time_upper VARCHAR(20)  ,</v>
       </c>
       <c r="P38" s="5" t="str">
-        <f>IF(F38&lt;&gt;"",D38&amp;" ASC "&amp;IF(F39&lt;&gt;"",",",")"),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R38" s="13" t="str">
@@ -15747,7 +15680,7 @@
     </row>
     <row r="39" ht="16.5" customHeight="1" spans="2:21">
       <c r="B39" s="8">
-        <f>ROW()-5</f>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="C39" s="17" t="s">
@@ -15766,11 +15699,11 @@
         <v>425</v>
       </c>
       <c r="K39" s="4" t="str">
-        <f>IF(D39="","",D39&amp;" "&amp;IF(E39="decimal","decimal(18,0) IDENTITY(1,1)",E39)&amp;" "&amp;IF(G39="√","NOT NULL","")&amp;" "&amp;IF(C40&lt;&gt;"",",",");"))</f>
+        <f t="shared" si="5"/>
         <v>Angle_lower VARCHAR(20)  ,</v>
       </c>
       <c r="P39" s="5" t="str">
-        <f>IF(F39&lt;&gt;"",D39&amp;" ASC "&amp;IF(F40&lt;&gt;"",",",")"),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R39" s="13" t="str">
@@ -15784,7 +15717,7 @@
     </row>
     <row r="40" customFormat="1" ht="16.5" customHeight="1" spans="2:21">
       <c r="B40" s="8">
-        <f>ROW()-5</f>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="C40" s="17" t="s">
@@ -15803,12 +15736,12 @@
         <v>425</v>
       </c>
       <c r="K40" s="4" t="str">
-        <f>IF(D40="","",D40&amp;" "&amp;IF(E40="decimal","decimal(18,0) IDENTITY(1,1)",E40)&amp;" "&amp;IF(G40="√","NOT NULL","")&amp;" "&amp;IF(C41&lt;&gt;"",",",");"))</f>
+        <f t="shared" si="5"/>
         <v>Angle_upper VARCHAR(20)  ,</v>
       </c>
       <c r="M40" s="3"/>
       <c r="P40" s="5" t="str">
-        <f>IF(F40&lt;&gt;"",D40&amp;" ASC "&amp;IF(F41&lt;&gt;"",",",")"),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R40" s="13" t="str">
@@ -15822,7 +15755,7 @@
     </row>
     <row r="41" s="1" customFormat="1" spans="2:21">
       <c r="B41" s="14">
-        <f>ROW()-5</f>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="C41" s="15" t="s">
@@ -15841,12 +15774,12 @@
         <v>204</v>
       </c>
       <c r="K41" s="4" t="str">
-        <f>IF(D41="","",D41&amp;" "&amp;IF(E41="decimal","decimal(18,0) IDENTITY(1,1)",E41)&amp;" "&amp;IF(G41="√","NOT NULL","")&amp;" "&amp;IF(C42&lt;&gt;"",",",");"))</f>
+        <f t="shared" si="5"/>
         <v>Inst_dat DATETIME  ,</v>
       </c>
       <c r="M41" s="3"/>
       <c r="P41" s="5" t="str">
-        <f>IF(F41&lt;&gt;"",D41&amp;" ASC "&amp;IF(F42&lt;&gt;"",",",")"),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R41" s="13" t="str">
@@ -15860,7 +15793,7 @@
     </row>
     <row r="42" s="1" customFormat="1" spans="2:21">
       <c r="B42" s="14">
-        <f>ROW()-5</f>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="C42" s="15" t="s">
@@ -15879,12 +15812,12 @@
         <v>204</v>
       </c>
       <c r="K42" s="4" t="str">
-        <f>IF(D42="","",D42&amp;" "&amp;IF(E42="decimal","decimal(18,0) IDENTITY(1,1)",E42)&amp;" "&amp;IF(G42="√","NOT NULL","")&amp;" "&amp;IF(C43&lt;&gt;"",",",");"))</f>
+        <f t="shared" si="5"/>
         <v>Upd_dat DATETIME  );</v>
       </c>
       <c r="M42" s="3"/>
       <c r="P42" s="5" t="str">
-        <f>IF(F42&lt;&gt;"",D42&amp;" ASC "&amp;IF(F43&lt;&gt;"",",",")"),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R42" s="13" t="str">
